--- a/data/georgia_census/racha/ambrolauri/education_graduates.xlsx
+++ b/data/georgia_census/racha/ambrolauri/education_graduates.xlsx
@@ -1850,13 +1850,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ABF902-B3A9-4DFB-84B8-C8EFB9E2EC6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF2941B-FE8D-493C-A315-508AC2B54D1E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADA6692A-6B51-44E1-8E86-FB70A2FADCEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E71136C-C408-46CB-8885-6F7054B4D08E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D94B1D3D-921B-49B9-84C9-B0812F4E49C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D797A3C3-CD21-4DC7-B0F0-4F56E2799BCA}"/>
 </file>